--- a/BalBot/BalBotBOM.xlsx
+++ b/BalBot/BalBotBOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8af56599bdb7c1ba/Projects/Balancing Robot/Mk 3 (Github)/BalancingRobot/BalBot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Projects\Balancing Robot\Mk 3 (Github)\BalancingRobot\BalBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C77EF9CB-6E1C-4A7B-85E0-040F61BB42F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{C77EF9CB-6E1C-4A7B-85E0-040F61BB42F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{017FC64A-DF6A-40CE-B72D-E92C8975F396}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{FF8749D3-F503-4303-ACFD-CD5594FDEB36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
   <si>
     <t>BalanceBot Main Board Component Footprint Selection/BOM</t>
   </si>
@@ -54,9 +54,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C2,C4,C9,C10</t>
-  </si>
-  <si>
     <t>C6, C11</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>490-6339-1-ND</t>
   </si>
   <si>
-    <t>16V (6.3V)</t>
-  </si>
-  <si>
     <t>490-12237-1-ND</t>
   </si>
   <si>
@@ -97,6 +91,291 @@
   </si>
   <si>
     <t>50V</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>490-3296-1-ND</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>6.3V</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>490-12344-1-ND</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>490-16353-1-ND</t>
+  </si>
+  <si>
+    <t>C18,C23,C24</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>8.2nF</t>
+  </si>
+  <si>
+    <t>490-6338-1-ND</t>
+  </si>
+  <si>
+    <t>C2,C4,C9,C10,C15,C16,C19,C20,C21,C28,C25</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C27,C29,C30</t>
+  </si>
+  <si>
+    <t>C12,C17</t>
+  </si>
+  <si>
+    <t>1276-1193-1-ND</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>B340A</t>
+  </si>
+  <si>
+    <t>160-1423-1-ND</t>
+  </si>
+  <si>
+    <t>160-1427-1-ND</t>
+  </si>
+  <si>
+    <t>40V 3A</t>
+  </si>
+  <si>
+    <t>DO-214AC</t>
+  </si>
+  <si>
+    <t>B340A-FDICT-ND</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>ASPI-0530LR-3R3M-T2CT-ND</t>
+  </si>
+  <si>
+    <t>3.3uH</t>
+  </si>
+  <si>
+    <t>36mOhm</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>PreBias</t>
+  </si>
+  <si>
+    <t>DTC114EET1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>R2,R3,R4,R5,R11,R12,R13,R14,R15,R17</t>
+  </si>
+  <si>
+    <t>R1,R9,R10</t>
+  </si>
+  <si>
+    <t>100 Ohm</t>
+  </si>
+  <si>
+    <t>10kOhm</t>
+  </si>
+  <si>
+    <t>R6,R7</t>
+  </si>
+  <si>
+    <t>4.7kOhm</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>330 Ohm</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>34 kOhm</t>
+  </si>
+  <si>
+    <t>311-10.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-100CRCT-ND</t>
+  </si>
+  <si>
+    <t>311-4.70KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-330CRCT-ND</t>
+  </si>
+  <si>
+    <t>311-34.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Tm4c123GH6PM</t>
+  </si>
+  <si>
+    <t>296-46360-1-ND</t>
+  </si>
+  <si>
+    <t>LQFP-64_10x10mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>FTDI_Header</t>
+  </si>
+  <si>
+    <t>ESP01_Header</t>
+  </si>
+  <si>
+    <t>Header_2x4</t>
+  </si>
+  <si>
+    <t>Header_1x6</t>
+  </si>
+  <si>
+    <t>U4,U5,U7,U8</t>
+  </si>
+  <si>
+    <t>TLE4946-2K</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>SC-59</t>
+  </si>
+  <si>
+    <t>TLE49462KHTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>DRV8848</t>
+  </si>
+  <si>
+    <t>Motor Driver</t>
+  </si>
+  <si>
+    <t>296-38514-5-ND</t>
+  </si>
+  <si>
+    <t>16-HTSSOP</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>MPU-6500</t>
+  </si>
+  <si>
+    <t>6DOF IMU</t>
+  </si>
+  <si>
+    <t>1428-1011-1-ND</t>
+  </si>
+  <si>
+    <t>24QFN</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>TPS562219DDF</t>
+  </si>
+  <si>
+    <t>3V3 SMPS</t>
+  </si>
+  <si>
+    <t>SOT23-8</t>
+  </si>
+  <si>
+    <t>296-48753-1-ND</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>644-1037-1-ND</t>
+  </si>
+  <si>
+    <t>16Mhz</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>2-SMD</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>535-9033-1-ND</t>
+  </si>
+  <si>
+    <t>Cylindrical Can</t>
   </si>
 </sst>
 </file>
@@ -168,10 +447,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -488,24 +768,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F991F982-7E17-4AEA-9BCB-C74E6326F730}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -516,10 +799,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -529,64 +815,445 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/BalBot/BalBotBOM.xlsx
+++ b/BalBot/BalBotBOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Projects\Balancing Robot\Mk 3 (Github)\BalancingRobot\BalBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Newhb\OneDrive\Projects\Balancing Robot\Mk 3 (Github)\BalancingRobot\BalBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{C77EF9CB-6E1C-4A7B-85E0-040F61BB42F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{017FC64A-DF6A-40CE-B72D-E92C8975F396}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{C77EF9CB-6E1C-4A7B-85E0-040F61BB42F2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{D84FD11B-941B-4088-8FAF-3C131FB46F0F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{FF8749D3-F503-4303-ACFD-CD5594FDEB36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>BalanceBot Main Board Component Footprint Selection/BOM</t>
   </si>
@@ -376,13 +376,25 @@
   </si>
   <si>
     <t>Cylindrical Can</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>USB microB</t>
+  </si>
+  <si>
+    <t>Surface,Right-Angle,ThroughHole</t>
+  </si>
+  <si>
+    <t>609-4618-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +417,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,11 +465,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -768,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F991F982-7E17-4AEA-9BCB-C74E6326F730}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,6 +1275,20 @@
         <v>115</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
